--- a/media/Attendance/sheet_2.xlsx
+++ b/media/Attendance/sheet_2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2021/1/20</t>
+          <t>2021/1/15</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -465,6 +465,102 @@
         </is>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-01-15 09:20:00.484737+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-01-15 11:02:48.016808+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-01-19 14:56:54.059903+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-01-19 14:58:27.089588+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-01-19 14:59:06.707655+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-01-19 15:00:43.456282+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-01-19 15:03:03.286919+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-01-19 15:09:10.796135+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>2021-01-20 07:58:50.521689+00:00</t>
         </is>

--- a/media/Attendance/sheet_2.xlsx
+++ b/media/Attendance/sheet_2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2021/1/15</t>
+          <t>2021/1/19</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-01-15 09:20:00.484737+00:00</t>
+          <t>2021-01-19 14:56:54.059903+00:00</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-01-15 11:02:48.016808+00:00</t>
+          <t>2021-01-19 14:58:27.089588+00:00</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-01-19 14:56:54.059903+00:00</t>
+          <t>2021-01-19 14:59:06.707655+00:00</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-01-19 14:58:27.089588+00:00</t>
+          <t>2021-01-19 15:00:43.456282+00:00</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-01-19 14:59:06.707655+00:00</t>
+          <t>2021-01-19 15:03:03.286919+00:00</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-01-19 15:00:43.456282+00:00</t>
+          <t>2021-01-19 15:09:10.796135+00:00</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-01-19 15:03:03.286919+00:00</t>
+          <t>2021-01-20 07:58:50.521689+00:00</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-01-19 15:09:10.796135+00:00</t>
+          <t>2021-01-20 13:57:06.429708+00:00</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,151 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-01-20 07:58:50.521689+00:00</t>
+          <t>2021-01-20 14:02:03.120352+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:08:21.035272+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:09:27.188612+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:10:19.932149+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:11:16.881589+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:11:41.224406+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:12:23.300198+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:12:53.574957+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:13:50.903827+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:14:30.853260+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:15:07.125512+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:15:36.173406+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Muskan Vaswan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021-01-20 14:16:08.782595+00:00</t>
         </is>
       </c>
     </row>
